--- a/artfynd/A 38686-2021.xlsx
+++ b/artfynd/A 38686-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71570509</v>
+        <v>89087437</v>
       </c>
       <c r="B2" t="n">
-        <v>57549</v>
+        <v>88806</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208245</v>
+        <v>5685</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Baggböle, Vb</t>
+          <t>Kåddis, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>750850.3687650872</v>
+        <v>750788.3443989656</v>
       </c>
       <c r="R2" t="n">
-        <v>7089808.334774029</v>
+        <v>7089862.722689836</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-05-27</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-05-27</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,28 +777,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Nils Ericson</t>
+          <t>Gunhild Eriksson Nyberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Nils Ericson</t>
+          <t>Gunhild Eriksson Nyberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71570532</v>
+        <v>71570509</v>
       </c>
       <c r="B3" t="n">
-        <v>55649</v>
+        <v>57549</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>208255</v>
+        <v>208245</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Zootoca vivipara</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Jacquin, 1787)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,7 +837,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Arboretrum norr, Vb</t>
+          <t>Baggböle, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -914,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71570642</v>
+        <v>71570532</v>
       </c>
       <c r="B4" t="n">
-        <v>56812</v>
+        <v>55649</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,31 +925,33 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102999</v>
+        <v>208255</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Turdus pilaris</t>
+          <t>Zootoca vivipara</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Jacquin, 1787)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Arboretrum norr, Vb</t>
@@ -1026,6 +1027,121 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>71570642</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56812</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>102999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Björktrast</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Turdus pilaris</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Arboretrum norr, Vb</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>750850.3687650872</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7089808.334774029</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2018-05-27</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2018-05-27</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Nils Ericson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Nils Ericson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
